--- a/3dirsingle.xlsx
+++ b/3dirsingle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\codes\dnnCossEuler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1718A4DA-A926-4A59-BD43-01791E97E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4563D2-0C09-4AFA-9EA0-E864171E4789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="6975" windowWidth="13770" windowHeight="15630" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="6915" windowWidth="20685" windowHeight="15630" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="std" sheetId="1" r:id="rId1"/>
@@ -392,12 +392,12 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="D2" sqref="D2:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,410 +411,410 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-8.75</v>
       </c>
       <c r="B2">
-        <v>47.546841478713233</v>
+        <v>46.946202235190832</v>
       </c>
       <c r="C2">
-        <v>0.13108108666468699</v>
+        <v>-4.451612575060925</v>
       </c>
       <c r="D2">
-        <v>-141.5294236762274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-148.11784109960942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-7.5</v>
       </c>
       <c r="B3">
-        <v>47.354553908374982</v>
+        <v>48.50505077701817</v>
       </c>
       <c r="C3">
-        <v>12.984614409739653</v>
+        <v>10.127941667763622</v>
       </c>
       <c r="D3">
-        <v>-126.00902339916718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-128.53027960890583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-6.25</v>
       </c>
       <c r="B4">
-        <v>44.953846694455947</v>
+        <v>46.96994325913213</v>
       </c>
       <c r="C4">
-        <v>25.675969809181971</v>
+        <v>23.143890650334885</v>
       </c>
       <c r="D4">
-        <v>-108.03606126424023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-110.52981020445746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-5</v>
       </c>
       <c r="B5">
-        <v>40.490527775874142</v>
+        <v>43.828313514691409</v>
       </c>
       <c r="C5">
-        <v>37.47037079580857</v>
+        <v>34.137086837912136</v>
       </c>
       <c r="D5">
-        <v>-86.004891660953945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-90.546764395752291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-3.75</v>
       </c>
       <c r="B6">
-        <v>34.232011089210978</v>
+        <v>37.185184423717772</v>
       </c>
       <c r="C6">
-        <v>46.83654344792329</v>
+        <v>45.032525753510669</v>
       </c>
       <c r="D6">
-        <v>-64.51847500031306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-68.586202624804741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-2.5</v>
       </c>
       <c r="B7">
-        <v>24.951754695659258</v>
+        <v>26.992760626625184</v>
       </c>
       <c r="C7">
-        <v>54.60018196653678</v>
+        <v>54.259587255054932</v>
       </c>
       <c r="D7">
-        <v>-41.846220981564187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-46.026363008209941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-1.25</v>
       </c>
       <c r="B8">
-        <v>13.197137328275097</v>
+        <v>14.279446823433512</v>
       </c>
       <c r="C8">
-        <v>59.966625126593208</v>
+        <v>60.185388700920413</v>
       </c>
       <c r="D8">
-        <v>-20.057574943692057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-23.639208734323443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1.2231866795852189</v>
+        <v>-1.22417005007659</v>
       </c>
       <c r="C9">
-        <v>61.887896659460267</v>
+        <v>62.303670183727128</v>
       </c>
       <c r="D9">
-        <v>0.95191734520252713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.18522172818075955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.25</v>
       </c>
       <c r="B10">
-        <v>-10.97318325292078</v>
+        <v>-14.458589770579961</v>
       </c>
       <c r="C10">
-        <v>60.751618526214941</v>
+        <v>60.377329825631705</v>
       </c>
       <c r="D10">
-        <v>20.469063229505014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>19.636643971854863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
       <c r="B11">
-        <v>-23.6885862045255</v>
+        <v>-27.495846823209394</v>
       </c>
       <c r="C11">
-        <v>56.085486833229133</v>
+        <v>54.611229262237003</v>
       </c>
       <c r="D11">
-        <v>42.446020298779381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>40.682784631446154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.75</v>
       </c>
       <c r="B12">
-        <v>-35.269017405574054</v>
+        <v>-39.14198724556438</v>
       </c>
       <c r="C12">
-        <v>47.542832283395484</v>
+        <v>44.847015663536737</v>
       </c>
       <c r="D12">
-        <v>64.660673848219517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>62.593614067512156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>-44.128411647321236</v>
+        <v>-47.81620274827953</v>
       </c>
       <c r="C13">
-        <v>35.619129167701125</v>
+        <v>31.265683183948674</v>
       </c>
       <c r="D13">
-        <v>88.335530658999218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>85.869088322565503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6.25</v>
       </c>
       <c r="B14">
-        <v>-48.273345585301755</v>
+        <v>-51.260172821179587</v>
       </c>
       <c r="C14">
-        <v>24.773579766570602</v>
+        <v>17.92386377788047</v>
       </c>
       <c r="D14">
-        <v>106.97589726983928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>107.81381291541132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7.5</v>
       </c>
       <c r="B15">
-        <v>-49.657626443130113</v>
+        <v>-50.87354989954315</v>
       </c>
       <c r="C15">
-        <v>13.827579423008096</v>
+        <v>5.398368258487495</v>
       </c>
       <c r="D15">
-        <v>125.02189959133844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>128.44840385223057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.75</v>
       </c>
       <c r="B16">
-        <v>-48.350145662020488</v>
+        <v>-47.585736684684726</v>
       </c>
       <c r="C16">
-        <v>2.8045109239242549</v>
+        <v>-5.8288600763594021</v>
       </c>
       <c r="D16">
-        <v>143.35881938373927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>147.7195379102395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>-47.967266383762485</v>
+        <v>-49.450780896380401</v>
       </c>
       <c r="C17">
-        <v>13.922080527918897</v>
+        <v>6.4412171481840481</v>
       </c>
       <c r="D17">
-        <v>129.60415460489207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>131.5236964632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.25</v>
       </c>
       <c r="B18">
-        <v>-45.992641418305951</v>
+        <v>-48.729151728374823</v>
       </c>
       <c r="C18">
-        <v>26.912129779621871</v>
+        <v>21.699956011605465</v>
       </c>
       <c r="D18">
-        <v>111.14596203493323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>109.98393908150636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>-41.133188977515069</v>
+        <v>-45.458720406489213</v>
       </c>
       <c r="C19">
-        <v>38.934416138205947</v>
+        <v>33.948924575636198</v>
       </c>
       <c r="D19">
-        <v>88.235011540945919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>86.932121853451292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.75</v>
       </c>
       <c r="B20">
-        <v>-33.667365645224081</v>
+        <v>-37.376369302418098</v>
       </c>
       <c r="C20">
-        <v>48.51891526000199</v>
+        <v>46.272448940690161</v>
       </c>
       <c r="D20">
-        <v>66.751877259547655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>62.554041586085376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
       <c r="B21">
-        <v>-22.857665254798665</v>
+        <v>-27.756115335557791</v>
       </c>
       <c r="C21">
-        <v>56.512187115029704</v>
+        <v>54.469850423235286</v>
       </c>
       <c r="D21">
-        <v>42.367785878562934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>41.936950161864267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.25</v>
       </c>
       <c r="B22">
-        <v>-10.689391849592811</v>
+        <v>-15.470227474893761</v>
       </c>
       <c r="C22">
-        <v>60.888952628180995</v>
+        <v>60.206868875195305</v>
       </c>
       <c r="D22">
-        <v>19.398869406412619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>20.473388898845723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>1.3470137239993463</v>
+        <v>-1.9847697167022778</v>
       </c>
       <c r="C23">
-        <v>61.828671336706499</v>
+        <v>62.333806663897285</v>
       </c>
       <c r="D23">
-        <v>-0.68286467718660493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-0.97570231624945691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.25</v>
       </c>
       <c r="B24">
-        <v>13.579212521322862</v>
+        <v>13.165120526238585</v>
       </c>
       <c r="C24">
-        <v>59.758557710084844</v>
+        <v>60.58535728142931</v>
       </c>
       <c r="D24">
-        <v>-19.372248928146263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-20.887469840898806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-2.5</v>
       </c>
       <c r="B25">
-        <v>26.335261424247655</v>
+        <v>28.784976647035421</v>
       </c>
       <c r="C25">
-        <v>53.953945456274454</v>
+        <v>53.46242814501506</v>
       </c>
       <c r="D25">
-        <v>-42.196429637243973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-45.182821788517089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-3.75</v>
       </c>
       <c r="B26">
-        <v>37.212897749414651</v>
+        <v>40.680328943540232</v>
       </c>
       <c r="C26">
-        <v>44.539435619680354</v>
+        <v>42.37176974146913</v>
       </c>
       <c r="D26">
-        <v>-65.629950903294116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-69.148924028533628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-5</v>
       </c>
       <c r="B27">
-        <v>44.56806970246852</v>
+        <v>47.571334092174453</v>
       </c>
       <c r="C27">
-        <v>33.253496335250254</v>
+        <v>29.637782213291388</v>
       </c>
       <c r="D27">
-        <v>-86.153536131490512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-91.654834034904937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-6.25</v>
       </c>
       <c r="B28">
-        <v>48.308739676154204</v>
+        <v>50.316962374579518</v>
       </c>
       <c r="C28">
-        <v>21.068980228762577</v>
+        <v>17.049738209933249</v>
       </c>
       <c r="D28">
-        <v>-107.76058052328504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-112.74460617160018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-7.5</v>
       </c>
       <c r="B29">
-        <v>48.87729386585049</v>
+        <v>49.728215008255745</v>
       </c>
       <c r="C29">
-        <v>10.239023520745057</v>
+        <v>7.1695462583453669</v>
       </c>
       <c r="D29">
-        <v>-125.94576024232904</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>-129.43697245565349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-8.75</v>
       </c>
       <c r="B30">
-        <v>47.661336188599321</v>
+        <v>46.922675213249207</v>
       </c>
       <c r="C30">
-        <v>0.47138647568425895</v>
+        <v>-4.4840514654748738</v>
       </c>
       <c r="D30">
-        <v>-141.12358122244669</v>
+        <v>-148.12418938697775</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D42"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
